--- a/files/database/db_shortnames.xlsx
+++ b/files/database/db_shortnames.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaya/Desktop/morning_allocation/files/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAROLJ\Downloads\Code and Files\morning_allocation-main\files\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B16880-7A74-C449-9B74-87B525FBD728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B9CB60-36AF-4442-878C-A2F80448BE5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8080" yWindow="2120" windowWidth="27240" windowHeight="16440" xr2:uid="{AB907B94-1CDE-CE47-96D1-96463BB5C661}"/>
+    <workbookView xWindow="9315" yWindow="-15480" windowWidth="19440" windowHeight="15000" xr2:uid="{AB907B94-1CDE-CE47-96D1-96463BB5C661}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$101</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="195">
   <si>
     <t>monitor_name</t>
   </si>
@@ -551,14 +550,94 @@
   </si>
   <si>
     <t>short_name</t>
+  </si>
+  <si>
+    <t>Louise Clare</t>
+  </si>
+  <si>
+    <t>Iona Baillie</t>
+  </si>
+  <si>
+    <t>Karen Chilton</t>
+  </si>
+  <si>
+    <t>John Gray</t>
+  </si>
+  <si>
+    <t>Steven McCulloch</t>
+  </si>
+  <si>
+    <t>Diane Birt</t>
+  </si>
+  <si>
+    <t>Eve Dougherty</t>
+  </si>
+  <si>
+    <t>Conrad Bank</t>
+  </si>
+  <si>
+    <t>Melanie Foy</t>
+  </si>
+  <si>
+    <t>Sophie  Edike</t>
+  </si>
+  <si>
+    <t>John Finnigan</t>
+  </si>
+  <si>
+    <t>Lynda Bond</t>
+  </si>
+  <si>
+    <t>Suzalee Blair-Gordon</t>
+  </si>
+  <si>
+    <t>Shaun Aston</t>
+  </si>
+  <si>
+    <t>Lucy Bird</t>
+  </si>
+  <si>
+    <t>Stephen Challoner</t>
+  </si>
+  <si>
+    <t>Frances  Foster</t>
+  </si>
+  <si>
+    <t>Klaudia Ferrando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theresa Charlesworth </t>
+  </si>
+  <si>
+    <t>David Duncalf</t>
+  </si>
+  <si>
+    <t>Karen Sunderland</t>
+  </si>
+  <si>
+    <t>David Davis</t>
+  </si>
+  <si>
+    <t>K AMARADASA</t>
+  </si>
+  <si>
+    <t>Kumudini Amaradasa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -586,9 +665,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -903,531 +983,531 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060B7163-9B6A-6E4E-8890-7C12B0B3D9C1}">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>71</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>76</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B60" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>193</v>
+      </c>
+      <c r="B62" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>84</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B64" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>103</v>
-      </c>
-      <c r="B34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>110</v>
-      </c>
-      <c r="B41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>115</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>116</v>
-      </c>
-      <c r="B47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>119</v>
-      </c>
-      <c r="B50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>121</v>
-      </c>
-      <c r="B52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>122</v>
-      </c>
-      <c r="B53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>123</v>
-      </c>
-      <c r="B54" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>124</v>
-      </c>
-      <c r="B55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>125</v>
-      </c>
-      <c r="B56" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>126</v>
-      </c>
-      <c r="B57" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>127</v>
-      </c>
-      <c r="B58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>128</v>
-      </c>
-      <c r="B59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>129</v>
-      </c>
-      <c r="B60" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>130</v>
-      </c>
-      <c r="B61" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>131</v>
-      </c>
-      <c r="B62" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>132</v>
-      </c>
-      <c r="B63" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>133</v>
-      </c>
-      <c r="B64" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>134</v>
       </c>
@@ -1435,288 +1515,308 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="B66" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>153</v>
+      </c>
+      <c r="B67" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>168</v>
+      </c>
+      <c r="B74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>136</v>
-      </c>
-      <c r="B67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>137</v>
-      </c>
-      <c r="B68" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>138</v>
-      </c>
-      <c r="B69" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>139</v>
-      </c>
-      <c r="B70" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>140</v>
-      </c>
-      <c r="B71" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>141</v>
-      </c>
-      <c r="B72" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>142</v>
-      </c>
-      <c r="B73" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>143</v>
-      </c>
-      <c r="B74" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>144</v>
-      </c>
-      <c r="B75" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B76" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="B78" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>74</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>152</v>
+      </c>
+      <c r="B89" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>165</v>
+      </c>
+      <c r="B90" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>138</v>
+      </c>
+      <c r="B92" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>154</v>
+      </c>
+      <c r="B93" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>122</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>114</v>
+      </c>
+      <c r="B96" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>148</v>
       </c>
-      <c r="B79" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>149</v>
-      </c>
-      <c r="B80" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>150</v>
-      </c>
-      <c r="B81" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>151</v>
-      </c>
-      <c r="B82" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>152</v>
-      </c>
-      <c r="B83" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>153</v>
-      </c>
-      <c r="B84" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>154</v>
-      </c>
-      <c r="B85" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>155</v>
-      </c>
-      <c r="B86" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>156</v>
-      </c>
-      <c r="B87" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>157</v>
-      </c>
-      <c r="B88" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>158</v>
-      </c>
-      <c r="B89" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>159</v>
-      </c>
-      <c r="B90" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>160</v>
-      </c>
-      <c r="B91" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>161</v>
-      </c>
-      <c r="B92" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>162</v>
-      </c>
-      <c r="B93" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>163</v>
-      </c>
-      <c r="B94" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>164</v>
-      </c>
-      <c r="B95" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>165</v>
-      </c>
-      <c r="B96" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="B97" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>166</v>
       </c>
-      <c r="B97" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>167</v>
-      </c>
       <c r="B98" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="B99" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="B100" t="s">
-        <v>42</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>93</v>
+      </c>
+      <c r="B101" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>79</v>
+      </c>
+      <c r="B102" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B100" xr:uid="{060B7163-9B6A-6E4E-8890-7C12B0B3D9C1}"/>
+  <autoFilter ref="A1:B101" xr:uid="{8C32414C-441E-40FC-93A2-040B1F4372B4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B102">
+    <sortCondition ref="B2:B102"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>